--- a/TestData/성능 테스트 비교 기록.xlsx
+++ b/TestData/성능 테스트 비교 기록.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eskwo\source\repos\MCP_Final\MCP_Final\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B504324A-715E-4AF0-9152-F87C35B9D72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FEC8A2-07A8-49A0-9FA4-217D673D05C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="0" windowWidth="14175" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="105" windowWidth="14175" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TEST_HJK" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ViT_seq</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,10 @@
   </si>
   <si>
     <t>MHA QxKt 병렬화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MHA score 스케일링 병렬화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -121,12 +125,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -407,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -419,8 +422,7 @@
     <col min="2" max="2" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -430,8 +432,11 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -444,8 +449,11 @@
       <c r="D2">
         <v>0.113</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -458,8 +466,11 @@
       <c r="D3">
         <v>0.20599999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>0.17699999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -472,8 +483,11 @@
       <c r="D4">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>0.95799999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -486,8 +500,11 @@
       <c r="D5">
         <v>1.177</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>1.137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -500,8 +517,11 @@
       <c r="D6">
         <v>14.122999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>13.762</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -514,48 +534,9 @@
       <c r="D7">
         <v>14.239000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
+      <c r="E7">
+        <v>13.92</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/TestData/성능 테스트 비교 기록.xlsx
+++ b/TestData/성능 테스트 비교 기록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eskwo\source\repos\MCP_Final\MCP_Final\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FEC8A2-07A8-49A0-9FA4-217D673D05C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E9B1EA-0D82-4992-B63E-FFE9AC6F7DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="105" windowWidth="14175" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ViT_seq</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,15 +55,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MHA QKV 세팅 병렬화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MHA QxKt 병렬화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MHA score 스케일링 병렬화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MHA 소프트맥스 병렬화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MHA Score*V 및 concat 병렬화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MHA Q*Kt 병렬화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MHA QKV 가중치곱 병렬화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MHA 최종 가중치곱 병렬화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MHA 코드 정리 + 행렬 타일링 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I3" sqref="B3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -422,21 +438,33 @@
     <col min="2" max="2" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -452,8 +480,20 @@
       <c r="E2">
         <v>0.113</v>
       </c>
+      <c r="F2">
+        <v>0.112</v>
+      </c>
+      <c r="G2">
+        <v>0.113</v>
+      </c>
+      <c r="H2">
+        <v>0.114</v>
+      </c>
+      <c r="I2">
+        <v>0.112</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -469,8 +509,20 @@
       <c r="E3">
         <v>0.17699999999999999</v>
       </c>
+      <c r="F3">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H3">
+        <v>3.1E-2</v>
+      </c>
+      <c r="I3">
+        <v>2.5999999999999999E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -486,8 +538,20 @@
       <c r="E4">
         <v>0.95799999999999996</v>
       </c>
+      <c r="F4">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="G4">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="H4">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.94399999999999995</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -503,8 +567,20 @@
       <c r="E5">
         <v>1.137</v>
       </c>
+      <c r="F5">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G5">
+        <v>1.095</v>
+      </c>
+      <c r="H5">
+        <v>11.826000000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.97199999999999998</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -520,8 +596,20 @@
       <c r="E6">
         <v>13.762</v>
       </c>
+      <c r="F6">
+        <v>13.571</v>
+      </c>
+      <c r="G6">
+        <v>13.14</v>
+      </c>
+      <c r="H6">
+        <v>11.942</v>
+      </c>
+      <c r="I6">
+        <v>11.659000000000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -536,6 +624,18 @@
       </c>
       <c r="E7">
         <v>13.92</v>
+      </c>
+      <c r="F7">
+        <v>13.686</v>
+      </c>
+      <c r="G7">
+        <v>13.255000000000001</v>
+      </c>
+      <c r="H7">
+        <v>12.13</v>
+      </c>
+      <c r="I7">
+        <v>11.773999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/성능 테스트 비교 기록.xlsx
+++ b/TestData/성능 테스트 비교 기록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eskwo\source\repos\MCP_Final\MCP_Final\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E9B1EA-0D82-4992-B63E-FFE9AC6F7DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560B91F6-33DF-4ABB-A87A-3F0EA9A88A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="105" windowWidth="14175" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>ViT_seq</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,25 @@
   </si>
   <si>
     <t>MHA 코드 정리 + 행렬 타일링 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLP 병렬화</t>
+  </si>
+  <si>
+    <t>MLP 타일링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conv2D 병렬화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전처리 병렬화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -87,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +116,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -141,11 +169,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -426,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="B3:I3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -438,33 +467,42 @@
     <col min="2" max="2" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -492,8 +530,14 @@
       <c r="I2">
         <v>0.112</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <v>0.113</v>
+      </c>
+      <c r="K2">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -521,8 +565,14 @@
       <c r="I3">
         <v>2.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -550,8 +600,14 @@
       <c r="I4">
         <v>0.94399999999999995</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K4">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -579,8 +635,14 @@
       <c r="I5">
         <v>0.97199999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="K5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -608,8 +670,14 @@
       <c r="I6">
         <v>11.659000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K6">
+        <v>0.42599999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -636,6 +704,68 @@
       </c>
       <c r="I7">
         <v>11.773999999999999</v>
+      </c>
+      <c r="J7">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="K7">
+        <v>0.54200000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>0.98899999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>11.869</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <v>12.16</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/성능 테스트 비교 기록.xlsx
+++ b/TestData/성능 테스트 비교 기록.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eskwo\source\repos\MCP_Final\MCP_Final\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560B91F6-33DF-4ABB-A87A-3F0EA9A88A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E863D420-FD65-4AB2-B5F3-B4CB5EC9E349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="105" windowWidth="14175" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="135" windowWidth="18285" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEST_HJK" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>ViT_seq</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,11 +94,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전처리 병렬화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conv2D에 flatten_transpose, class_token, pos_embed 통합 및 병렬화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 작업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,9 +461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -469,7 +471,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -714,10 +716,13 @@
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>16</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -727,6 +732,9 @@
       <c r="J9">
         <v>1E-3</v>
       </c>
+      <c r="K9">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -735,6 +743,9 @@
       <c r="J10">
         <v>0.01</v>
       </c>
+      <c r="K10">
+        <v>1.7999999999999999E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -743,6 +754,9 @@
       <c r="J11">
         <v>0.97499999999999998</v>
       </c>
+      <c r="K11">
+        <v>0.97699999999999998</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -751,6 +765,9 @@
       <c r="J12">
         <v>0.98899999999999999</v>
       </c>
+      <c r="K12">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -759,6 +776,9 @@
       <c r="J13">
         <v>11.869</v>
       </c>
+      <c r="K13">
+        <v>11.951000000000001</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -766,6 +786,9 @@
       </c>
       <c r="J14">
         <v>12.16</v>
+      </c>
+      <c r="K14">
+        <v>11.952999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/성능 테스트 비교 기록.xlsx
+++ b/TestData/성능 테스트 비교 기록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eskwo\source\repos\MCP_Final\MCP_Final\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E863D420-FD65-4AB2-B5F3-B4CB5EC9E349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DDE849-2623-4086-89AF-D9A02893EC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="135" windowWidth="18285" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>ViT_seq</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,14 @@
   </si>
   <si>
     <t>메인 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layer_norm 병렬화(MLP 병렬화 병합)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -161,7 +169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -169,16 +177,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -459,9 +477,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -469,42 +489,42 @@
     <col min="2" max="2" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -539,7 +559,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -574,7 +594,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -609,7 +629,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -644,7 +664,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -679,53 +699,53 @@
         <v>0.42599999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>15.321999999999999</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>15.157</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>14.239000000000001</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <v>13.92</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <v>13.686</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="5">
         <v>13.255000000000001</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="5">
         <v>12.13</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="5">
         <v>11.773999999999999</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="5">
         <v>0.88300000000000001</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="5">
         <v>0.54200000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -736,7 +756,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -747,7 +767,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -758,7 +778,7 @@
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -769,7 +789,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -780,15 +800,71 @@
         <v>11.951000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="5">
         <v>12.16</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="5">
         <v>11.952999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>0.72299999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0.72599999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/성능 테스트 비교 기록.xlsx
+++ b/TestData/성능 테스트 비교 기록.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eskwo\source\repos\MCP_Final\MCP_Final\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DDE849-2623-4086-89AF-D9A02893EC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1E1863-DDB1-4BB3-8703-718F8789D780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="135" windowWidth="18285" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>ViT_seq</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,26 @@
   </si>
   <si>
     <t>layer_norm 병렬화(MLP 병렬화 병합)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트환경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU: i5-10400F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU: RTX 2060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLP 가중치 로드 방식 변경 및 전체 구조 개선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜치 머지(+소프트맥스 병렬화)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -190,13 +210,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -477,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -489,7 +510,7 @@
     <col min="2" max="2" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
@@ -523,8 +544,14 @@
       <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -558,33 +585,39 @@
       <c r="K2">
         <v>0.115</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <v>1E-3</v>
+      </c>
+      <c r="N2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>0.29499999999999998</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0.27900000000000003</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>0.20599999999999999</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>0.17699999999999999</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>0.17499999999999999</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="J3">
@@ -593,8 +626,14 @@
       <c r="K3">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="N3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -622,14 +661,20 @@
       <c r="I4">
         <v>0.94399999999999995</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <v>3.1E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -663,8 +708,14 @@
       <c r="K5">
         <v>3.5999999999999997E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5" s="2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="N5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -698,8 +749,14 @@
       <c r="K6">
         <v>0.42599999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M6" s="2">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="N6">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -727,14 +784,20 @@
       <c r="I7" s="5">
         <v>11.773999999999999</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="6">
         <v>0.88300000000000001</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="6">
         <v>0.54200000000000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="6">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0.249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -745,18 +808,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <v>1E-3</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="2">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -767,7 +830,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -778,7 +841,7 @@
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -789,7 +852,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -800,18 +863,18 @@
         <v>11.951000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="J14" s="5">
         <v>12.16</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="6">
         <v>11.952999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -819,7 +882,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
@@ -847,7 +910,7 @@
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="2">
         <v>0.06</v>
       </c>
     </row>
@@ -855,7 +918,7 @@
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="2">
         <v>0.72299999999999998</v>
       </c>
     </row>
@@ -863,8 +926,23 @@
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="6">
         <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/성능 테스트 비교 기록.xlsx
+++ b/TestData/성능 테스트 비교 기록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eskwo\source\repos\MCP_Final\MCP_Final\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1E1863-DDB1-4BB3-8703-718F8789D780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC4A2F6-60CB-42FC-ABEC-51DC5332DFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="135" windowWidth="18285" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>ViT_seq</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,14 @@
   </si>
   <si>
     <t>브랜치 머지(+소프트맥스 병렬화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLP 병렬화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인자 전달 방식 변경 및 통합</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,7 +171,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +193,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -210,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -218,6 +232,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -498,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -510,7 +525,7 @@
     <col min="2" max="2" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
@@ -538,20 +553,17 @@
       <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="M1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -579,20 +591,17 @@
       <c r="I2">
         <v>0.112</v>
       </c>
-      <c r="J2">
-        <v>0.113</v>
-      </c>
-      <c r="K2">
-        <v>0.115</v>
-      </c>
       <c r="M2">
         <v>1E-3</v>
       </c>
       <c r="N2">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2" s="7">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -620,20 +629,17 @@
       <c r="I3" s="2">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="J3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="K3">
-        <v>3.0000000000000001E-3</v>
-      </c>
       <c r="M3">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="N3">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O3" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -661,20 +667,17 @@
       <c r="I4">
         <v>0.94399999999999995</v>
       </c>
-      <c r="J4" s="2">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="K4" s="2">
-        <v>3.1E-2</v>
-      </c>
       <c r="M4">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="N4" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O4" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -702,20 +705,17 @@
       <c r="I5">
         <v>0.97199999999999998</v>
       </c>
-      <c r="J5">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="K5">
-        <v>3.5999999999999997E-2</v>
-      </c>
       <c r="M5" s="2">
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="N5">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -743,20 +743,17 @@
       <c r="I6">
         <v>11.659000000000001</v>
       </c>
-      <c r="J6">
-        <v>0.76700000000000002</v>
-      </c>
-      <c r="K6">
-        <v>0.42599999999999999</v>
-      </c>
       <c r="M6" s="2">
         <v>0.35099999999999998</v>
       </c>
       <c r="N6">
         <v>0.245</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O6" s="2">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -784,164 +781,264 @@
       <c r="I7" s="5">
         <v>11.773999999999999</v>
       </c>
-      <c r="J7" s="6">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0.54200000000000004</v>
-      </c>
       <c r="M7" s="6">
         <v>0.35499999999999998</v>
       </c>
       <c r="N7" s="6">
         <v>0.249</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O7" s="6">
+        <v>0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>0.113</v>
+      </c>
+      <c r="K9">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="J10">
-        <v>0.01</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="K10">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J11">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="K11">
-        <v>0.97699999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J11" s="2">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K11" s="2">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J12">
-        <v>0.98899999999999999</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="K12">
-        <v>0.996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J13">
-        <v>11.869</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="K13">
-        <v>11.951000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.42599999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J14" s="5">
-        <v>12.16</v>
+      <c r="J14" s="6">
+        <v>0.88300000000000001</v>
       </c>
       <c r="K14" s="6">
-        <v>11.952999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.54200000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L16">
+      <c r="J16" s="2">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K16" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L17">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>0.01</v>
+      </c>
+      <c r="K17">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L18">
-        <v>5.3999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="K18">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L19" s="2">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="K19">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L20" s="2">
-        <v>0.72299999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <v>11.869</v>
+      </c>
+      <c r="K20">
+        <v>11.951000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L21" s="6">
+      <c r="J21" s="5">
+        <v>12.16</v>
+      </c>
+      <c r="K21" s="6">
+        <v>11.952999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0.72299999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="6">
         <v>0.72599999999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>24</v>
       </c>
     </row>
